--- a/formatted/candidates/candidates-6/candidates-current-locations.xlsx
+++ b/formatted/candidates/candidates-6/candidates-current-locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe.meade/Git/MarineMax/tcn.migration/formatted/candidates/candidates-6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E766BB26-1DC0-C54E-8620-584E61D5EE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BC62C8-AA3F-3341-B47A-FB4708967CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="53400" windowHeight="23620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35257,7 +35257,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D2304" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/formatted/candidates/candidates-6/candidates-current-locations.xlsx
+++ b/formatted/candidates/candidates-6/candidates-current-locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe.meade/Git/MarineMax/tcn.migration/formatted/candidates/candidates-6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BC62C8-AA3F-3341-B47A-FB4708967CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85697CA9-59CD-FD49-84C2-7BE9DFF26B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="53400" windowHeight="23620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -686,7 +686,7 @@
   <dimension ref="A1:D2304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
